--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1109.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1109.xlsx
@@ -354,7 +354,7 @@
         <v>1.609592561862705</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.877131725048496</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1109.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1109.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.947336416455385</v>
+        <v>1.174721837043762</v>
       </c>
       <c r="B1">
-        <v>1.609592561862705</v>
+        <v>2.398706436157227</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.877131725048496</v>
+        <v>2.355192184448242</v>
       </c>
       <c r="E1">
-        <v>1.304792418777375</v>
+        <v>1.208419919013977</v>
       </c>
     </row>
   </sheetData>
